--- a/data/trans_orig/Q5415-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q5415-Clase-trans_orig.xlsx
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4343</v>
+        <v>4765</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01589114001246909</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07264708062239776</v>
+        <v>0.07970908083186025</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6662</v>
+        <v>6777</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07025555662559017</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2242349940687536</v>
+        <v>0.2281087812035726</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -833,19 +833,19 @@
         <v>3037</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7923</v>
+        <v>8960</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03393829114420453</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.009722130693278243</v>
+        <v>0.009638193040340427</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08853076782872328</v>
+        <v>0.1001184843025804</v>
       </c>
     </row>
     <row r="6">
@@ -862,7 +862,7 @@
         <v>58834</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>55441</v>
+        <v>55019</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>59784</v>
@@ -871,7 +871,7 @@
         <v>0.9841088599875309</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9273529193776012</v>
+        <v>0.92029091916814</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -883,7 +883,7 @@
         <v>27622</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23047</v>
+        <v>22932</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>29709</v>
@@ -892,7 +892,7 @@
         <v>0.9297444433744099</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7757650059312435</v>
+        <v>0.7718912187964272</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -904,19 +904,19 @@
         <v>86456</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>81570</v>
+        <v>80533</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>88623</v>
+        <v>88630</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9660617088557955</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9114692321712767</v>
+        <v>0.8998815156974203</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9902778693067218</v>
+        <v>0.9903618069596596</v>
       </c>
     </row>
     <row r="7">
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6746</v>
+        <v>6582</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03761687411423977</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1327240400809667</v>
+        <v>0.1294995123888523</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5605</v>
+        <v>5713</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1173050593776778</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3550807421291577</v>
+        <v>0.3618739624743941</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -1097,7 +1097,7 @@
         <v>3764</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="T9" s="5" t="n">
         <v>8911</v>
@@ -1106,10 +1106,10 @@
         <v>0.05650034457070546</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01417921631345659</v>
+        <v>0.01421088656842104</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1337741679686101</v>
+        <v>0.133767845192496</v>
       </c>
     </row>
     <row r="10">
@@ -1126,7 +1126,7 @@
         <v>48918</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44084</v>
+        <v>44248</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>50830</v>
@@ -1135,7 +1135,7 @@
         <v>0.9623831258857602</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8672759599190333</v>
+        <v>0.870500487611148</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1147,7 +1147,7 @@
         <v>13934</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10181</v>
+        <v>10073</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>15786</v>
@@ -1156,7 +1156,7 @@
         <v>0.8826949406223222</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.644919257870842</v>
+        <v>0.6381260375256057</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -1171,16 +1171,16 @@
         <v>57705</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65671</v>
+        <v>65669</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9434996554292946</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8662258320313895</v>
+        <v>0.8662321548075042</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9858207836865434</v>
+        <v>0.9857891134315789</v>
       </c>
     </row>
     <row r="11">
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6048</v>
+        <v>5708</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07727707834090913</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2491595946566834</v>
+        <v>0.2351437363448397</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6079</v>
+        <v>5817</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01953488564952362</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06330103766403607</v>
+        <v>0.06057000045747887</v>
       </c>
     </row>
     <row r="13">
@@ -1335,19 +1335,19 @@
         <v>6294</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2602</v>
+        <v>2753</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11268</v>
+        <v>12353</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08771648162067737</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03626663944518674</v>
+        <v>0.03836214402700682</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1570333455645864</v>
+        <v>0.1721577805082636</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6978</v>
+        <v>6699</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09076008775531653</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2874713853351608</v>
+        <v>0.2759716284276206</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -1377,19 +1377,19 @@
         <v>8497</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3804</v>
+        <v>3855</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15702</v>
+        <v>15268</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08848587532808529</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.039609114612532</v>
+        <v>0.04014495829906443</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1635136595574309</v>
+        <v>0.1589914449996307</v>
       </c>
     </row>
     <row r="14">
@@ -1406,19 +1406,19 @@
         <v>65460</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>60486</v>
+        <v>59401</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>69152</v>
+        <v>69001</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9122835183793226</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8429666544354134</v>
+        <v>0.8278422194917368</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9637333605548133</v>
+        <v>0.9616378559729933</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -1427,19 +1427,19 @@
         <v>20196</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15831</v>
+        <v>15152</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23184</v>
+        <v>23220</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8319628339037743</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6521494967842457</v>
+        <v>0.6242006538961843</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9550389359781806</v>
+        <v>0.956540308484465</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>90</v>
@@ -1448,19 +1448,19 @@
         <v>85657</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>78086</v>
+        <v>78228</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>90771</v>
+        <v>90812</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8919792390223911</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8131389131362833</v>
+        <v>0.8146229719807806</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9452333010394847</v>
+        <v>0.9456652718893526</v>
       </c>
     </row>
     <row r="15">
@@ -1552,19 +1552,19 @@
         <v>5691</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1994</v>
+        <v>1906</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12307</v>
+        <v>12402</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0218841604271198</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007665977140670321</v>
+        <v>0.007327381032390178</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04732187460624965</v>
+        <v>0.04768777997529905</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1573,19 +1573,19 @@
         <v>4295</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1063</v>
+        <v>1172</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9714</v>
+        <v>11074</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05008187985959203</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01239407028681912</v>
+        <v>0.01367314827916108</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1132841518600141</v>
+        <v>0.1291398916009237</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -1594,19 +1594,19 @@
         <v>9986</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5176</v>
+        <v>5078</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18054</v>
+        <v>17456</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02887619253660664</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01496664871753473</v>
+        <v>0.01468256737216001</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05220469714552235</v>
+        <v>0.05047707226444015</v>
       </c>
     </row>
     <row r="17">
@@ -1623,19 +1623,19 @@
         <v>16284</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9827</v>
+        <v>10488</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24247</v>
+        <v>24718</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06261416274766893</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03778615723819428</v>
+        <v>0.040326286377271</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09323261938283087</v>
+        <v>0.09504145369817699</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1644,19 +1644,19 @@
         <v>4038</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9882</v>
+        <v>10324</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04708794418492743</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01314320721752969</v>
+        <v>0.01304860937319333</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1152421096350116</v>
+        <v>0.1203978551520819</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>22</v>
@@ -1665,19 +1665,19 @@
         <v>20322</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12740</v>
+        <v>13089</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>29621</v>
+        <v>29103</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05876421243556735</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03683892676047718</v>
+        <v>0.03784821109343172</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08565288427551235</v>
+        <v>0.08415694304442391</v>
       </c>
     </row>
     <row r="18">
@@ -1694,19 +1694,19 @@
         <v>238096</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>229155</v>
+        <v>228586</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>245527</v>
+        <v>245306</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9155016768252112</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8811200901872278</v>
+        <v>0.8789326508225135</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9440738734282578</v>
+        <v>0.9432244755965459</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>80</v>
@@ -1715,19 +1715,19 @@
         <v>77419</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>69476</v>
+        <v>69827</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>81467</v>
+        <v>81857</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9028301759554805</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8101935172051716</v>
+        <v>0.8142935553955621</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9500293084494608</v>
+        <v>0.9545733818105775</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>333</v>
@@ -1736,19 +1736,19 @@
         <v>315516</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>304782</v>
+        <v>305057</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>325938</v>
+        <v>324658</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.912359595027826</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8813216770993885</v>
+        <v>0.8821151201920497</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9424957186066246</v>
+        <v>0.9387949549417712</v>
       </c>
     </row>
     <row r="19">
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5624</v>
+        <v>4993</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02978520179537457</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1013999424340344</v>
+        <v>0.09001982745988248</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -1861,19 +1861,19 @@
         <v>10336</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5089</v>
+        <v>4859</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>18070</v>
+        <v>18493</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1073890032290107</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05286796146619277</v>
+        <v>0.05048799118503117</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1877371553824306</v>
+        <v>0.1921315284493867</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -1882,19 +1882,19 @@
         <v>11988</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6159</v>
+        <v>6125</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>20310</v>
+        <v>20629</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07901794480255234</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04059383112429119</v>
+        <v>0.04036866231190336</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1338699799466701</v>
+        <v>0.1359694809914421</v>
       </c>
     </row>
     <row r="21">
@@ -1911,19 +1911,19 @@
         <v>3948</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>973</v>
+        <v>1031</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9627</v>
+        <v>8902</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07118386795303339</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01753373800055855</v>
+        <v>0.01858896601355529</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1735633017078435</v>
+        <v>0.1604892920793682</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -1932,19 +1932,19 @@
         <v>4584</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1157</v>
+        <v>1165</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>10490</v>
+        <v>11441</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04762911262938278</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01201649382423829</v>
+        <v>0.01210153487320528</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1089883680751418</v>
+        <v>0.1188669116442761</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>8</v>
@@ -1953,19 +1953,19 @@
         <v>8533</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4175</v>
+        <v>4157</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>16867</v>
+        <v>15621</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05624046061959309</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02752036069330683</v>
+        <v>0.02739940706042359</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1111736277181524</v>
+        <v>0.1029600214044255</v>
       </c>
     </row>
     <row r="22">
@@ -1982,19 +1982,19 @@
         <v>49865</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>43691</v>
+        <v>44571</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>52981</v>
+        <v>52917</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8990309302515921</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7877164850191403</v>
+        <v>0.8035891678430226</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9552066459070923</v>
+        <v>0.9540605947640316</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>78</v>
@@ -2003,19 +2003,19 @@
         <v>81330</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>72594</v>
+        <v>72583</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>87081</v>
+        <v>87456</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8449818841416065</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7542266993922102</v>
+        <v>0.7541041478808757</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9047400314182239</v>
+        <v>0.9086298900780225</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>131</v>
@@ -2024,19 +2024,19 @@
         <v>131194</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>120721</v>
+        <v>122720</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>138506</v>
+        <v>138863</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8647415945778546</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7957063397612846</v>
+        <v>0.8088877246056595</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9129338658800759</v>
+        <v>0.9152887215143198</v>
       </c>
     </row>
     <row r="23">
@@ -2141,19 +2141,19 @@
         <v>14747</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8256</v>
+        <v>8191</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23068</v>
+        <v>23440</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03469229000353285</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01942335972107093</v>
+        <v>0.01926866148589017</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05426894604231942</v>
+        <v>0.05514375363647894</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>14</v>
@@ -2162,19 +2162,19 @@
         <v>14747</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>8154</v>
+        <v>8266</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>24111</v>
+        <v>23854</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03439733185250321</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01902043195354251</v>
+        <v>0.01928038419006963</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05623977693609119</v>
+        <v>0.05564024232431668</v>
       </c>
     </row>
     <row r="25">
@@ -2212,19 +2212,19 @@
         <v>39461</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>29442</v>
+        <v>28505</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>54266</v>
+        <v>52468</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09283381376171949</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06926282382882419</v>
+        <v>0.06705857302370261</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1276648359949684</v>
+        <v>0.1234329921004267</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>37</v>
@@ -2233,19 +2233,19 @@
         <v>40375</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>29033</v>
+        <v>29596</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>52592</v>
+        <v>53387</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09417735810392899</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06771994556955913</v>
+        <v>0.06903404112744993</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1226733016153985</v>
+        <v>0.1245289248460318</v>
       </c>
     </row>
     <row r="26">
@@ -2283,19 +2283,19 @@
         <v>370862</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>356134</v>
+        <v>356641</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>383632</v>
+        <v>385152</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8724738962347477</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8378237659492703</v>
+        <v>0.8390176844458647</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9025146018258443</v>
+        <v>0.9060905938529866</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>365</v>
@@ -2304,19 +2304,19 @@
         <v>373593</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>360559</v>
+        <v>357108</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>387878</v>
+        <v>386305</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8714253100435678</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8410233892825935</v>
+        <v>0.832972152571808</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9047464019986196</v>
+        <v>0.9010759250362267</v>
       </c>
     </row>
     <row r="27">
@@ -2408,19 +2408,19 @@
         <v>7344</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3340</v>
+        <v>3606</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>14277</v>
+        <v>14190</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01464160168335146</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006659958209864677</v>
+        <v>0.007189151167263753</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02846644035604661</v>
+        <v>0.02829197302580946</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>30</v>
@@ -2429,19 +2429,19 @@
         <v>31253</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>20943</v>
+        <v>20993</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>44553</v>
+        <v>43463</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04617533731179114</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03094195604695566</v>
+        <v>0.03101566690937876</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06582499424585062</v>
+        <v>0.06421435391764306</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>38</v>
@@ -2450,19 +2450,19 @@
         <v>38597</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>28422</v>
+        <v>27303</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>53119</v>
+        <v>51575</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03275385993864945</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02411951589930069</v>
+        <v>0.02316966643960308</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04507736290320503</v>
+        <v>0.04376707380467421</v>
       </c>
     </row>
     <row r="29">
@@ -2479,19 +2479,19 @@
         <v>30303</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>21555</v>
+        <v>21904</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>41559</v>
+        <v>41540</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06041849235074497</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04297760481549681</v>
+        <v>0.04367160053857454</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08286141635952958</v>
+        <v>0.08282378638307607</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>50</v>
@@ -2500,19 +2500,19 @@
         <v>54225</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>41400</v>
+        <v>41935</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>69148</v>
+        <v>71939</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08011508738320543</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06116622583955018</v>
+        <v>0.06195647416248223</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1021634206189723</v>
+        <v>0.1062863539250895</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>83</v>
@@ -2521,19 +2521,19 @@
         <v>84528</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>69095</v>
+        <v>67885</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>105491</v>
+        <v>103791</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07173176712990553</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05863495197297772</v>
+        <v>0.05760844874381144</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08952081500395423</v>
+        <v>0.08807822874981817</v>
       </c>
     </row>
     <row r="30">
@@ -2550,19 +2550,19 @@
         <v>463905</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>452049</v>
+        <v>451449</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>473482</v>
+        <v>473238</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9249399059659036</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9013024798544021</v>
+        <v>0.900105037060407</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9440352818943113</v>
+        <v>0.9435487891558451</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>581</v>
@@ -2571,19 +2571,19 @@
         <v>591363</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>572520</v>
+        <v>571277</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>608416</v>
+        <v>606747</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8737095753050035</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8458693810000837</v>
+        <v>0.8440332120485716</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8989041520112391</v>
+        <v>0.8964377561869297</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1062</v>
@@ -2592,19 +2592,19 @@
         <v>1055268</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1033115</v>
+        <v>1033361</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1074584</v>
+        <v>1075724</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.895514372931445</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8767154664663103</v>
+        <v>0.8769240551959397</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9119059557324982</v>
+        <v>0.91287411221695</v>
       </c>
     </row>
     <row r="31">
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5819</v>
+        <v>5530</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0434799700497733</v>
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2301038571679725</v>
+        <v>0.2186913772487411</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5525</v>
+        <v>5633</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01588815857440026</v>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07982791609029452</v>
+        <v>0.08139619031978526</v>
       </c>
     </row>
     <row r="5">
@@ -3001,19 +3001,19 @@
         <v>4220</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11267</v>
+        <v>11188</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09608389234673469</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02315446708992978</v>
+        <v>0.02331186815497817</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2565410890867784</v>
+        <v>0.2547577279943878</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5286</v>
+        <v>5450</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04162510573438099</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2090224833033834</v>
+        <v>0.2154903593768627</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -3043,19 +3043,19 @@
         <v>5272</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1089</v>
+        <v>1966</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12308</v>
+        <v>12927</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07618392837537007</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01573722168229433</v>
+        <v>0.02840803735044503</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1778408060132259</v>
+        <v>0.1867875148266801</v>
       </c>
     </row>
     <row r="6">
@@ -3072,19 +3072,19 @@
         <v>39698</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>32651</v>
+        <v>32730</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42901</v>
+        <v>42894</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9039161076532654</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7434589109132216</v>
+        <v>0.7452422720056119</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9768455329100703</v>
+        <v>0.9766881318450218</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -3093,7 +3093,7 @@
         <v>23137</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18362</v>
+        <v>18538</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>25289</v>
@@ -3102,7 +3102,7 @@
         <v>0.9148949242158457</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.726084443509182</v>
+        <v>0.7330407777135534</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -3114,19 +3114,19 @@
         <v>62835</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>56385</v>
+        <v>55660</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>67164</v>
+        <v>67092</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9079279130502297</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8147355653020546</v>
+        <v>0.8042545672829893</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9704814536288285</v>
+        <v>0.9694382067772676</v>
       </c>
     </row>
     <row r="7">
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10764</v>
+        <v>11086</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03717823964459675</v>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1775313597243423</v>
+        <v>0.1828406114483385</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6912</v>
+        <v>6824</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1168536038681506</v>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3656640088822416</v>
+        <v>0.3610171330181494</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -3260,19 +3260,19 @@
         <v>4463</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1094</v>
+        <v>1105</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13155</v>
+        <v>14338</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05611405044419158</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01375552024931245</v>
+        <v>0.01389012662011995</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1654059002838087</v>
+        <v>0.1802786426010422</v>
       </c>
     </row>
     <row r="9">
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7181</v>
+        <v>7220</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03733191266226404</v>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1184468724486513</v>
+        <v>0.1190886557308637</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6431</v>
+        <v>6288</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1107831487291637</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3402438463819998</v>
+        <v>0.3326872409093133</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -3331,19 +3331,19 @@
         <v>4357</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10751</v>
+        <v>10750</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05478848437314701</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0141141360640932</v>
+        <v>0.01410376640521398</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1351739588999754</v>
+        <v>0.1351696463568058</v>
       </c>
     </row>
     <row r="10">
@@ -3360,19 +3360,19 @@
         <v>56112</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48146</v>
+        <v>47239</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>59516</v>
+        <v>59518</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9254898476931392</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7940891632784521</v>
+        <v>0.7791285182552801</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9816287901937821</v>
+        <v>0.9816523056613325</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -3381,19 +3381,19 @@
         <v>14599</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9823</v>
+        <v>9969</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17818</v>
+        <v>17817</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7723632474026857</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5196933451157423</v>
+        <v>0.5274245046425367</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9426582314016456</v>
+        <v>0.9425770234855232</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -3402,19 +3402,19 @@
         <v>70711</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>61554</v>
+        <v>62081</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>75377</v>
+        <v>75463</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8890974651826614</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7739619726574156</v>
+        <v>0.7805834855920128</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9477661517632459</v>
+        <v>0.9488477562789706</v>
       </c>
     </row>
     <row r="11">
@@ -3506,19 +3506,19 @@
         <v>2935</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8055</v>
+        <v>7553</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02473334089728966</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007899640062478388</v>
+        <v>0.007838893209184799</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06788598008672403</v>
+        <v>0.06365870600440102</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -3527,19 +3527,19 @@
         <v>3206</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7910</v>
+        <v>9275</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05869923240617952</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01827292943838113</v>
+        <v>0.01836348301503974</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1448241724166233</v>
+        <v>0.1698198387007651</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -3548,19 +3548,19 @@
         <v>6141</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2392</v>
+        <v>2886</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>12724</v>
+        <v>12475</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03543947844513448</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01380790781506876</v>
+        <v>0.01665546230088222</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07343551426680267</v>
+        <v>0.07199777605058991</v>
       </c>
     </row>
     <row r="13">
@@ -3577,19 +3577,19 @@
         <v>3177</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8914</v>
+        <v>8095</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02677400521065052</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008439254426820621</v>
+        <v>0.008560536991911659</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07512481234713821</v>
+        <v>0.0682228532658547</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -3598,19 +3598,19 @@
         <v>4360</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1065</v>
+        <v>1084</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9893</v>
+        <v>9864</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07983249714714373</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01950258070784244</v>
+        <v>0.01985155381839608</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1811441933938317</v>
+        <v>0.1806143854507724</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -3619,19 +3619,19 @@
         <v>7537</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3205</v>
+        <v>3183</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14781</v>
+        <v>14393</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04349818018496662</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01849797630353262</v>
+        <v>0.01837226614930561</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08530674697750652</v>
+        <v>0.08306563236066761</v>
       </c>
     </row>
     <row r="14">
@@ -3648,19 +3648,19 @@
         <v>112541</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>106109</v>
+        <v>106541</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>116532</v>
+        <v>116594</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9484926538920598</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8942773223808222</v>
+        <v>0.8979189950625023</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9821225383891663</v>
+        <v>0.9826477531092435</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>45</v>
@@ -3669,19 +3669,19 @@
         <v>47049</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>40543</v>
+        <v>40728</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>51469</v>
+        <v>51374</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8614682704466767</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7423482121253524</v>
+        <v>0.7457290443248402</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9423927720101875</v>
+        <v>0.9406614307417774</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>141</v>
@@ -3690,19 +3690,19 @@
         <v>159591</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>151533</v>
+        <v>151709</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>165310</v>
+        <v>165703</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.921062341369899</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8745597664674722</v>
+        <v>0.8755731424797576</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9540686574184849</v>
+        <v>0.9563392016273302</v>
       </c>
     </row>
     <row r="15">
@@ -3794,19 +3794,19 @@
         <v>13884</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7440</v>
+        <v>7788</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23514</v>
+        <v>23842</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05991007488645654</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0321051099531248</v>
+        <v>0.03360393172784134</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1014600005676671</v>
+        <v>0.1028764925430838</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -3815,19 +3815,19 @@
         <v>4309</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1132</v>
+        <v>1042</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10575</v>
+        <v>9790</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07170634386569262</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01884322324084694</v>
+        <v>0.01733359229235206</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.175971823790659</v>
+        <v>0.1629147859213272</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -3836,19 +3836,19 @@
         <v>18194</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10572</v>
+        <v>10859</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29393</v>
+        <v>28418</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06233907637723655</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03622382531482832</v>
+        <v>0.03720802060294405</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1007119015509877</v>
+        <v>0.09737090414150065</v>
       </c>
     </row>
     <row r="17">
@@ -3865,19 +3865,19 @@
         <v>20913</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12465</v>
+        <v>12786</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31999</v>
+        <v>31534</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09024004623997818</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05378721819043006</v>
+        <v>0.05517267509074309</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1380719800304918</v>
+        <v>0.1360656269293684</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -3886,19 +3886,19 @@
         <v>5531</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2139</v>
+        <v>2149</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11692</v>
+        <v>11046</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0920429694394929</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03558712753359108</v>
+        <v>0.03575602957230966</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1945642952107774</v>
+        <v>0.1838092603791885</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -3907,19 +3907,19 @@
         <v>26445</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16987</v>
+        <v>18007</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>38665</v>
+        <v>38012</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09061129100788672</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05820518488377029</v>
+        <v>0.0616989042383282</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1324843874996452</v>
+        <v>0.1302443406848312</v>
       </c>
     </row>
     <row r="18">
@@ -3936,19 +3936,19 @@
         <v>196955</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>183098</v>
+        <v>183921</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>208234</v>
+        <v>207230</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8498498788735653</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7900576094812117</v>
+        <v>0.7936085022985071</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8985184268550721</v>
+        <v>0.8941856879625355</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>48</v>
@@ -3957,19 +3957,19 @@
         <v>50254</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>43646</v>
+        <v>43764</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>55613</v>
+        <v>55422</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8362506866948145</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7262802881609177</v>
+        <v>0.728242179151056</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9254159099314232</v>
+        <v>0.9222343854253697</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>232</v>
@@ -3978,19 +3978,19 @@
         <v>247210</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>233423</v>
+        <v>234473</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>259435</v>
+        <v>258987</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8470496326148768</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7998092820426185</v>
+        <v>0.8034065614305916</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.888937386529997</v>
+        <v>0.8874044354805551</v>
       </c>
     </row>
     <row r="19">
@@ -4082,19 +4082,19 @@
         <v>4096</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1044</v>
+        <v>1014</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10430</v>
+        <v>9288</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0398838043208329</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01016376896586896</v>
+        <v>0.00987866980834784</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1015584623231779</v>
+        <v>0.0904376873752727</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -4103,19 +4103,19 @@
         <v>23598</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15156</v>
+        <v>15024</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>34115</v>
+        <v>34328</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1252550031315652</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08044603605067917</v>
+        <v>0.0797432296542163</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1810767771854011</v>
+        <v>0.1822072212548488</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>25</v>
@@ -4124,19 +4124,19 @@
         <v>27694</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>19047</v>
+        <v>18305</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>40149</v>
+        <v>39871</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09513691165428151</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06543209616819726</v>
+        <v>0.06288180676483228</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1379229645773427</v>
+        <v>0.1369680632797297</v>
       </c>
     </row>
     <row r="21">
@@ -4153,19 +4153,19 @@
         <v>5224</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2043</v>
+        <v>2049</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11300</v>
+        <v>11037</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05087342923981768</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01989608968660227</v>
+        <v>0.01994933185766521</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1100339155921048</v>
+        <v>0.1074703738799154</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -4174,19 +4174,19 @@
         <v>22747</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>14499</v>
+        <v>14931</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>33720</v>
+        <v>33415</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1207391642982276</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07695671923840358</v>
+        <v>0.07925377912986595</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1789822637814832</v>
+        <v>0.1773617163137998</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>26</v>
@@ -4195,19 +4195,19 @@
         <v>27972</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>19098</v>
+        <v>19117</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>40997</v>
+        <v>38874</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0960912428805852</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06560767191457315</v>
+        <v>0.06567256165377421</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1408380755549723</v>
+        <v>0.1335419804997019</v>
       </c>
     </row>
     <row r="22">
@@ -4224,19 +4224,19 @@
         <v>93376</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>86902</v>
+        <v>86236</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>98489</v>
+        <v>98442</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9092427664393494</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8462082308063239</v>
+        <v>0.8397178105935657</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9590362409590841</v>
+        <v>0.9585780904780146</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>135</v>
@@ -4245,19 +4245,19 @@
         <v>142055</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>128075</v>
+        <v>128934</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>153108</v>
+        <v>153397</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7540058325702071</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6798061130457652</v>
+        <v>0.684363153877497</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8126735679428266</v>
+        <v>0.8142066320438733</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>222</v>
@@ -4266,19 +4266,19 @@
         <v>235430</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>219736</v>
+        <v>220328</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>248650</v>
+        <v>247530</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8087718454651333</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7548588709490753</v>
+        <v>0.7568918633869473</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8541853872204938</v>
+        <v>0.8503389381252558</v>
       </c>
     </row>
     <row r="23">
@@ -4383,19 +4383,19 @@
         <v>35332</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>25592</v>
+        <v>24690</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>48722</v>
+        <v>49037</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08951601733158605</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0648386422697651</v>
+        <v>0.06255250519058654</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1234404830044597</v>
+        <v>0.1242375903458581</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>32</v>
@@ -4404,19 +4404,19 @@
         <v>35332</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>24885</v>
+        <v>24562</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>47900</v>
+        <v>47785</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0890674749243013</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06273234760097149</v>
+        <v>0.06191597014127892</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1207484180971201</v>
+        <v>0.1204576752365651</v>
       </c>
     </row>
     <row r="25">
@@ -4446,19 +4446,19 @@
         <v>36998</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>26228</v>
+        <v>27736</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>49968</v>
+        <v>51401</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09373548404459205</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06644868871492786</v>
+        <v>0.07026963524995916</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1265963416545293</v>
+        <v>0.1302259468444066</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>34</v>
@@ -4467,19 +4467,19 @@
         <v>36998</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>26057</v>
+        <v>27052</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>50380</v>
+        <v>50705</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09326579894337018</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06568495864243326</v>
+        <v>0.06819457225369598</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1270015426247042</v>
+        <v>0.127820488698324</v>
       </c>
     </row>
     <row r="26">
@@ -4509,19 +4509,19 @@
         <v>322374</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>306472</v>
+        <v>305071</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>337483</v>
+        <v>336672</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8167484986238219</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7764610814809834</v>
+        <v>0.7729113494750464</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8550274141927096</v>
+        <v>0.8529730314158381</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>304</v>
@@ -4530,19 +4530,19 @@
         <v>324362</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>307856</v>
+        <v>308680</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>339795</v>
+        <v>339445</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8176667261323285</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7760587141409497</v>
+        <v>0.7781349351606699</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8565712846497189</v>
+        <v>0.8556878669155059</v>
       </c>
     </row>
     <row r="27">
@@ -4634,19 +4634,19 @@
         <v>23169</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>14748</v>
+        <v>14497</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>34654</v>
+        <v>36374</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04140009959390366</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02635255645682084</v>
+        <v>0.02590358745420508</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0619224768128545</v>
+        <v>0.06499493329545651</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>63</v>
@@ -4655,19 +4655,19 @@
         <v>69754</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>55232</v>
+        <v>53499</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>90158</v>
+        <v>86102</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09400713369696975</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07443555238352563</v>
+        <v>0.07210071804696633</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1215065701998911</v>
+        <v>0.1160399734565567</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>83</v>
@@ -4676,19 +4676,19 @@
         <v>92923</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>74573</v>
+        <v>74847</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>112753</v>
+        <v>114503</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07138889898412021</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0572911057201017</v>
+        <v>0.05750197636460216</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08662399785737054</v>
+        <v>0.0879683167299679</v>
       </c>
     </row>
     <row r="29">
@@ -4705,19 +4705,19 @@
         <v>35798</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>24755</v>
+        <v>24491</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>50382</v>
+        <v>49110</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06396628166165427</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04423338333675834</v>
+        <v>0.04376155583048146</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09002643765581538</v>
+        <v>0.08775258083303672</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>67</v>
@@ -4726,19 +4726,19 @@
         <v>72783</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>55277</v>
+        <v>58873</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>90679</v>
+        <v>91181</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0980897548184621</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07449744796464949</v>
+        <v>0.0793426941052504</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1222077344601222</v>
+        <v>0.1228842824175304</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>99</v>
@@ -4747,19 +4747,19 @@
         <v>108581</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>89567</v>
+        <v>89289</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>134243</v>
+        <v>132604</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08341847105883808</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06881109641857948</v>
+        <v>0.06859720583177685</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1031332904159529</v>
+        <v>0.1018745927763141</v>
       </c>
     </row>
     <row r="30">
@@ -4776,19 +4776,19 @@
         <v>500670</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>483917</v>
+        <v>483579</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>514630</v>
+        <v>514774</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.894633618744442</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8646977517011744</v>
+        <v>0.86409459394592</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9195783225516366</v>
+        <v>0.919835544114423</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>563</v>
@@ -4797,19 +4797,19 @@
         <v>599468</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>575071</v>
+        <v>576963</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>621357</v>
+        <v>621468</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8079031114845682</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7750233470702017</v>
+        <v>0.7775727981169688</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8374024745771472</v>
+        <v>0.8375526703715382</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1015</v>
@@ -4818,19 +4818,19 @@
         <v>1100138</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1072663</v>
+        <v>1072439</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1124624</v>
+        <v>1124916</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8451926299570417</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8240846624373942</v>
+        <v>0.8239124165986602</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8640041687642043</v>
+        <v>0.8642281784222713</v>
       </c>
     </row>
     <row r="31">
@@ -5167,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7078</v>
+        <v>7584</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02290312290990164</v>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1031144143232646</v>
+        <v>0.110478651515021</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6966</v>
+        <v>6476</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03729599306543466</v>
@@ -5197,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1888309395310173</v>
+        <v>0.1755555548761533</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -5209,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10696</v>
+        <v>10199</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02793393856037155</v>
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1013510110407438</v>
+        <v>0.09664560434800373</v>
       </c>
     </row>
     <row r="5">
@@ -5238,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5105</v>
+        <v>5132</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02377982498267337</v>
@@ -5247,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07436488337988657</v>
+        <v>0.07475343151042504</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -5256,19 +5256,19 @@
         <v>3686</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1153</v>
+        <v>1160</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9659</v>
+        <v>10044</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0999106263989408</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03125018069526128</v>
+        <v>0.03144053162777796</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2618493390225908</v>
+        <v>0.2722899048800045</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -5277,19 +5277,19 @@
         <v>5318</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1996</v>
+        <v>1666</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11397</v>
+        <v>11556</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05039022465341167</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01891706486328432</v>
+        <v>0.01578715920403379</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1079888328731406</v>
+        <v>0.1094981540832541</v>
       </c>
     </row>
     <row r="6">
@@ -5306,19 +5306,19 @@
         <v>65442</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>60014</v>
+        <v>59752</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67918</v>
+        <v>67879</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.953317052107425</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8742403889061214</v>
+        <v>0.8704247589341152</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9893800900079129</v>
+        <v>0.9888083848133765</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>25</v>
@@ -5327,19 +5327,19 @@
         <v>31827</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25222</v>
+        <v>25995</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>35600</v>
+        <v>35639</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8627933805356245</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6837566479391871</v>
+        <v>0.704694948564016</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.965091746399358</v>
+        <v>0.9661291580284567</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>89</v>
@@ -5348,19 +5348,19 @@
         <v>97269</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>89863</v>
+        <v>90172</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>102088</v>
+        <v>102161</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9216758367862168</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8515007554009031</v>
+        <v>0.8544289101835156</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9673374896323548</v>
+        <v>0.9680322531093729</v>
       </c>
     </row>
     <row r="7">
@@ -5452,19 +5452,19 @@
         <v>2808</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7174</v>
+        <v>6707</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05264443084718683</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01662214301066948</v>
+        <v>0.01642999986576839</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1344766138509917</v>
+        <v>0.1257259954508609</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4882</v>
+        <v>5347</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06552718428667159</v>
@@ -5485,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2775727400493962</v>
+        <v>0.3040388849048546</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -5494,19 +5494,19 @@
         <v>3961</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>931</v>
+        <v>1020</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9241</v>
+        <v>9600</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05583880942386966</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01312180808120633</v>
+        <v>0.01437361615457907</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1302843352760281</v>
+        <v>0.1353397210288122</v>
       </c>
     </row>
     <row r="9">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5101</v>
+        <v>5085</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0191261313083843</v>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09563015008483731</v>
+        <v>0.09533399087203125</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6595</v>
+        <v>7520</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1372573262353709</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3749527920162904</v>
+        <v>0.4275793834756805</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -5565,19 +5565,19 @@
         <v>3434</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9489</v>
+        <v>9013</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04841767679090046</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01443205505538622</v>
+        <v>0.01423608814244163</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.133771534114124</v>
+        <v>0.1270656031332115</v>
       </c>
     </row>
     <row r="10">
@@ -5594,19 +5594,19 @@
         <v>49515</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44702</v>
+        <v>45162</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52355</v>
+        <v>52340</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9282294378444289</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8379940922806699</v>
+        <v>0.846617558156924</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9814649792319835</v>
+        <v>0.9811822635959663</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -5615,19 +5615,19 @@
         <v>14021</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9438</v>
+        <v>9482</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16597</v>
+        <v>16541</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7972154894779575</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5366311694394088</v>
+        <v>0.5391370780060135</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9436308016551554</v>
+        <v>0.9404642127989002</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>62</v>
@@ -5636,19 +5636,19 @@
         <v>63537</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57304</v>
+        <v>57392</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67718</v>
+        <v>67797</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8957435137852299</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8078655898640126</v>
+        <v>0.8091097643088339</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9546902527295348</v>
+        <v>0.9558034615369203</v>
       </c>
     </row>
     <row r="11">
@@ -5743,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7994</v>
+        <v>7161</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01782932596487992</v>
@@ -5752,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06647440485848218</v>
+        <v>0.05954659919464717</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -5764,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7440</v>
+        <v>7435</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0531993062742515</v>
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1609967859199781</v>
+        <v>0.1608947569375704</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -5782,19 +5782,19 @@
         <v>4602</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1235</v>
+        <v>1252</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11003</v>
+        <v>10293</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02764735439468852</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007416587931115002</v>
+        <v>0.007521695298768345</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06609878744149096</v>
+        <v>0.06182798025088387</v>
       </c>
     </row>
     <row r="13">
@@ -5811,19 +5811,19 @@
         <v>3950</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1480</v>
+        <v>1545</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8454</v>
+        <v>9290</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0328445043395512</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01230291563038604</v>
+        <v>0.01284542986990165</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07029894508944964</v>
+        <v>0.07724484401461841</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -5832,19 +5832,19 @@
         <v>5721</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1373</v>
+        <v>1353</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12589</v>
+        <v>13892</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1238062958309521</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02971662303132957</v>
+        <v>0.02928852975436056</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2724265299610948</v>
+        <v>0.3006435840957049</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -5853,19 +5853,19 @@
         <v>9671</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4728</v>
+        <v>4783</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18123</v>
+        <v>17525</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05809375376173058</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02840392771266731</v>
+        <v>0.02873472979730303</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1088694164261326</v>
+        <v>0.1052762770057654</v>
       </c>
     </row>
     <row r="14">
@@ -5882,19 +5882,19 @@
         <v>114167</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>108396</v>
+        <v>107409</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>117831</v>
+        <v>117408</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9493261696955689</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9013420421186691</v>
+        <v>0.8931345181936533</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.979790936463065</v>
+        <v>0.9762736927341873</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>31</v>
@@ -5903,19 +5903,19 @@
         <v>38030</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>30727</v>
+        <v>29561</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>43484</v>
+        <v>42743</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8229943978947964</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6649640582961411</v>
+        <v>0.639720310005901</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9410187532668624</v>
+        <v>0.9249956590255893</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>152</v>
@@ -5924,19 +5924,19 @@
         <v>152197</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>142226</v>
+        <v>143342</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>158077</v>
+        <v>158594</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9142588918435809</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8543642776812244</v>
+        <v>0.8610691648048356</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9495842375880154</v>
+        <v>0.95268543846791</v>
       </c>
     </row>
     <row r="15">
@@ -6028,19 +6028,19 @@
         <v>7672</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3660</v>
+        <v>3460</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14575</v>
+        <v>13381</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03763419826130673</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01795573453274433</v>
+        <v>0.01697035927602466</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07149564153812865</v>
+        <v>0.0656394099711554</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -6049,19 +6049,19 @@
         <v>5317</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1323</v>
+        <v>1662</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13467</v>
+        <v>12497</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05368521393368886</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01335613790102232</v>
+        <v>0.01678055308700072</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.135969337859403</v>
+        <v>0.126171817318682</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -6070,19 +6070,19 @@
         <v>12989</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7229</v>
+        <v>6831</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21839</v>
+        <v>20960</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0428827276906911</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02386485381798363</v>
+        <v>0.02255148147352217</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07209979758545051</v>
+        <v>0.06919841213839037</v>
       </c>
     </row>
     <row r="17">
@@ -6099,19 +6099,19 @@
         <v>9969</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5174</v>
+        <v>4594</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16802</v>
+        <v>16716</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04890221502969209</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02537850157842777</v>
+        <v>0.02253758338280554</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08241989896374742</v>
+        <v>0.08199889263204251</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -6120,19 +6120,19 @@
         <v>8190</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3418</v>
+        <v>3449</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16530</v>
+        <v>17500</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0826914206149835</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03450440224957593</v>
+        <v>0.03482274301311177</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.16689591032597</v>
+        <v>0.1766902322647664</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>17</v>
@@ -6141,19 +6141,19 @@
         <v>18159</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10845</v>
+        <v>10988</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>28774</v>
+        <v>28267</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05995096381479629</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03580420454626843</v>
+        <v>0.03627461960453523</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09499301981184627</v>
+        <v>0.0933192963462557</v>
       </c>
     </row>
     <row r="18">
@@ -6170,19 +6170,19 @@
         <v>186215</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>177217</v>
+        <v>178466</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>192985</v>
+        <v>193147</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9134635867090012</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8693248807901347</v>
+        <v>0.8754520604685413</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9466732716164011</v>
+        <v>0.9474688766537208</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>74</v>
@@ -6191,19 +6191,19 @@
         <v>85538</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>75809</v>
+        <v>76093</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>92058</v>
+        <v>91849</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8636233654513277</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7653896172732328</v>
+        <v>0.768259859617714</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9294443973467108</v>
+        <v>0.9273406014012465</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>272</v>
@@ -6212,19 +6212,19 @@
         <v>271753</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>258267</v>
+        <v>260769</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>280849</v>
+        <v>281101</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8971663084945126</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8526412039495178</v>
+        <v>0.8609037998092309</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9271935592919521</v>
+        <v>0.9280276161481646</v>
       </c>
     </row>
     <row r="19">
@@ -6316,19 +6316,19 @@
         <v>4558</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1793</v>
+        <v>1740</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9375</v>
+        <v>9822</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0313899243923474</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.012347703157533</v>
+        <v>0.01198509510440138</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06455716713803651</v>
+        <v>0.06763340845110223</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -6337,19 +6337,19 @@
         <v>5294</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1300</v>
+        <v>1354</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12942</v>
+        <v>12108</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03318053545237069</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00814509368465139</v>
+        <v>0.008486849787041843</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08111729585308593</v>
+        <v>0.07588545499181165</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -6358,19 +6358,19 @@
         <v>9852</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5028</v>
+        <v>4739</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>17916</v>
+        <v>17743</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03232732466544982</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01649900878727127</v>
+        <v>0.01554900178040705</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05878435125919359</v>
+        <v>0.0582162153808616</v>
       </c>
     </row>
     <row r="21">
@@ -6387,19 +6387,19 @@
         <v>11841</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6679</v>
+        <v>6283</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19288</v>
+        <v>19968</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08153870573354687</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04599375989484094</v>
+        <v>0.04326354089553808</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1328175737385551</v>
+        <v>0.1375013762118687</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>16</v>
@@ -6408,19 +6408,19 @@
         <v>19001</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>11409</v>
+        <v>11270</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>29823</v>
+        <v>28249</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1190893400643996</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07150764851193911</v>
+        <v>0.07063757788071615</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1869216866556024</v>
+        <v>0.177053979668802</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>29</v>
@@ -6429,19 +6429,19 @@
         <v>30842</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>21593</v>
+        <v>20905</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>43985</v>
+        <v>42626</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1011967854040996</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07085121689759176</v>
+        <v>0.06859277650211726</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1443211566251748</v>
+        <v>0.139862674394456</v>
       </c>
     </row>
     <row r="22">
@@ -6458,19 +6458,19 @@
         <v>128821</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>120428</v>
+        <v>120257</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>134983</v>
+        <v>135236</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8870713698741057</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8292711827162553</v>
+        <v>0.8280946753945118</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9295035622991832</v>
+        <v>0.9312452757536371</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>119</v>
@@ -6479,19 +6479,19 @@
         <v>135255</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>123966</v>
+        <v>125276</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>143974</v>
+        <v>143973</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8477301244832297</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7769735150077399</v>
+        <v>0.7851845557505719</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9023743855275652</v>
+        <v>0.902370150295824</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>260</v>
@@ -6500,19 +6500,19 @@
         <v>264077</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>250832</v>
+        <v>250487</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>275751</v>
+        <v>275340</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8664758899304505</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8230171294557415</v>
+        <v>0.8218872069338536</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9047799128088285</v>
+        <v>0.9034308995321916</v>
       </c>
     </row>
     <row r="23">
@@ -6613,19 +6613,19 @@
         <v>24698</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15068</v>
+        <v>15477</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>37875</v>
+        <v>39351</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0597903620037883</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03647742406915137</v>
+        <v>0.03746695973311373</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09168805961354927</v>
+        <v>0.09526190876457895</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>19</v>
@@ -6634,19 +6634,19 @@
         <v>24698</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>15068</v>
+        <v>15477</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>37875</v>
+        <v>39351</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0597903620037883</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03647742406915137</v>
+        <v>0.03746695973311373</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09168805961354927</v>
+        <v>0.09526190876457895</v>
       </c>
     </row>
     <row r="25">
@@ -6672,19 +6672,19 @@
         <v>49064</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>37247</v>
+        <v>35624</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>65647</v>
+        <v>65302</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1187750739294948</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0901676835235467</v>
+        <v>0.08623875442615282</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1589200813705316</v>
+        <v>0.1580839072100175</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>40</v>
@@ -6693,19 +6693,19 @@
         <v>49064</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>37247</v>
+        <v>35624</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>65647</v>
+        <v>65302</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1187750739294948</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0901676835235467</v>
+        <v>0.08623875442615282</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1589200813705316</v>
+        <v>0.1580839072100175</v>
       </c>
     </row>
     <row r="26">
@@ -6731,19 +6731,19 @@
         <v>339321</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>321667</v>
+        <v>320535</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>355960</v>
+        <v>355606</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8214345640667169</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7786975678614958</v>
+        <v>0.7759579448446562</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8617152711487959</v>
+        <v>0.8608573564011186</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>288</v>
@@ -6752,19 +6752,19 @@
         <v>339321</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>321667</v>
+        <v>320535</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>355960</v>
+        <v>355606</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8214345640667169</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7786975678614958</v>
+        <v>0.7759579448446562</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8617152711487959</v>
+        <v>0.8608573564011186</v>
       </c>
     </row>
     <row r="27">
@@ -6844,19 +6844,19 @@
         <v>18755</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>11715</v>
+        <v>11986</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>29182</v>
+        <v>29377</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03171685474501226</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01981163887630655</v>
+        <v>0.02026967337181888</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0493500129903854</v>
+        <v>0.0496802614622126</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>31</v>
@@ -6865,19 +6865,19 @@
         <v>40296</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>27675</v>
+        <v>25610</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>54969</v>
+        <v>54504</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05217253633710559</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03583125400529134</v>
+        <v>0.0331582971079415</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0711698428866718</v>
+        <v>0.07056738566692712</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>51</v>
@@ -6886,19 +6886,19 @@
         <v>59051</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>44818</v>
+        <v>44672</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>77188</v>
+        <v>75645</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04330248536271383</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03286484786014829</v>
+        <v>0.03275792349021642</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05660217894081467</v>
+        <v>0.0554706230780501</v>
       </c>
     </row>
     <row r="29">
@@ -6915,19 +6915,19 @@
         <v>28413</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>19107</v>
+        <v>19242</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>39752</v>
+        <v>39016</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04804893956878022</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03231147811661266</v>
+        <v>0.03254012436656681</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06722552999227387</v>
+        <v>0.0659799914810496</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>71</v>
@@ -6936,19 +6936,19 @@
         <v>88075</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>69055</v>
+        <v>70730</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>110095</v>
+        <v>108379</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1140336327326105</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08940788006516023</v>
+        <v>0.0915763413479203</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1425433022910054</v>
+        <v>0.1403212625560354</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>103</v>
@@ -6957,19 +6957,19 @@
         <v>116488</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>96467</v>
+        <v>97225</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>140911</v>
+        <v>139023</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08542116194996968</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07073962998681435</v>
+        <v>0.07129511718051783</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1033304496880274</v>
+        <v>0.1019463980164032</v>
       </c>
     </row>
     <row r="30">
@@ -6986,19 +6986,19 @@
         <v>544160</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>528893</v>
+        <v>531107</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>555927</v>
+        <v>555383</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9202342056862075</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8944161969723875</v>
+        <v>0.8981595853073381</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9401331539797569</v>
+        <v>0.9392131519191167</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>548</v>
@@ -7007,19 +7007,19 @@
         <v>643992</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>617934</v>
+        <v>621505</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>667028</v>
+        <v>665018</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8337938309302839</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8000558993640304</v>
+        <v>0.804678586407145</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8636188411260005</v>
+        <v>0.8610167709070707</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1123</v>
@@ -7028,19 +7028,19 @@
         <v>1188153</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1159397</v>
+        <v>1161354</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1211344</v>
+        <v>1213680</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8712763526873165</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8501894949125619</v>
+        <v>0.8516249374466217</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8882830553355578</v>
+        <v>0.8899955407827953</v>
       </c>
     </row>
     <row r="31">
@@ -7374,19 +7374,19 @@
         <v>3122</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6376</v>
+        <v>6396</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02592707969126439</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009936310687813414</v>
+        <v>0.009857654055245114</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05295677450993071</v>
+        <v>0.05312200730556263</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3113</v>
+        <v>2920</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008252821608618205</v>
@@ -7407,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04175004857893502</v>
+        <v>0.03915754052773489</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -7416,19 +7416,19 @@
         <v>3737</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1544</v>
+        <v>1765</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7671</v>
+        <v>7550</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01916787448195521</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007919704615556388</v>
+        <v>0.009051149107074451</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0393452719214554</v>
+        <v>0.03872405159724339</v>
       </c>
     </row>
     <row r="5">
@@ -7445,19 +7445,19 @@
         <v>2366</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>652</v>
+        <v>523</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6193</v>
+        <v>5819</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01965067270626664</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005411201608566411</v>
+        <v>0.004347644004677965</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05143641281261467</v>
+        <v>0.04833412772886795</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -7466,19 +7466,19 @@
         <v>4253</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1943</v>
+        <v>1548</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8037</v>
+        <v>8144</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05704091536823364</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0260537674479456</v>
+        <v>0.02076096305725682</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1077948503460047</v>
+        <v>0.1092259773407047</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -7487,19 +7487,19 @@
         <v>6619</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3544</v>
+        <v>3297</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11816</v>
+        <v>11325</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03394990505855688</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01817897150148812</v>
+        <v>0.01691165301945186</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06060738533637952</v>
+        <v>0.05808818556880485</v>
       </c>
     </row>
     <row r="6">
@@ -7516,19 +7516,19 @@
         <v>114913</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>110964</v>
+        <v>110826</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>117654</v>
+        <v>117811</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.954422247602469</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9216197489935675</v>
+        <v>0.9204734611792245</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9771811214338409</v>
+        <v>0.9784852452849895</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>124</v>
@@ -7537,19 +7537,19 @@
         <v>69691</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>65375</v>
+        <v>65477</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>72169</v>
+        <v>72326</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9347062630231483</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8768264474451472</v>
+        <v>0.878191176358656</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9679450904487262</v>
+        <v>0.9700468912788576</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>285</v>
@@ -7558,19 +7558,19 @@
         <v>184604</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>179349</v>
+        <v>178851</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>189022</v>
+        <v>188627</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9468822204594879</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9199250542689454</v>
+        <v>0.9173711983644238</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9695439994459921</v>
+        <v>0.9675151283713068</v>
       </c>
     </row>
     <row r="7">
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3886</v>
+        <v>3408</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01024653804263028</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03711244836822578</v>
+        <v>0.03254941286459331</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -7683,19 +7683,19 @@
         <v>2714</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>977</v>
+        <v>934</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5895</v>
+        <v>6051</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0490064247005964</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01764468901573853</v>
+        <v>0.01687142111613164</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1064301435274103</v>
+        <v>0.1092496888790427</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -7704,19 +7704,19 @@
         <v>3787</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1476</v>
+        <v>1462</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8004</v>
+        <v>7360</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.02365508374583177</v>
+        <v>0.02365508374583178</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.009218119328317108</v>
+        <v>0.009134047238440583</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04999290411635</v>
+        <v>0.04596959260160604</v>
       </c>
     </row>
     <row r="9">
@@ -7733,19 +7733,19 @@
         <v>5800</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2714</v>
+        <v>2406</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12056</v>
+        <v>12045</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05538403454318084</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02592149270540853</v>
+        <v>0.0229720156827293</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1151350920026352</v>
+        <v>0.1150264319804555</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -7754,19 +7754,19 @@
         <v>2320</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5433</v>
+        <v>5520</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04189314389330412</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0110148800623502</v>
+        <v>0.01079845881893732</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09810101961921341</v>
+        <v>0.09967101465535273</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -7775,19 +7775,19 @@
         <v>8120</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4117</v>
+        <v>4277</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>14443</v>
+        <v>14982</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.05071701305645551</v>
+        <v>0.05071701305645553</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02571694813329439</v>
+        <v>0.02671554649339492</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09021251300257536</v>
+        <v>0.09357777842617791</v>
       </c>
     </row>
     <row r="10">
@@ -7804,19 +7804,19 @@
         <v>97842</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>91468</v>
+        <v>90953</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>101233</v>
+        <v>101275</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9343694274141889</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8734926834456544</v>
+        <v>0.8685760344515647</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9667491391736863</v>
+        <v>0.9671533097794863</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>89</v>
@@ -7825,19 +7825,19 @@
         <v>50351</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46509</v>
+        <v>46344</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52947</v>
+        <v>53054</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9091004314060994</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8397352749259877</v>
+        <v>0.8367563041751899</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9559861493251672</v>
+        <v>0.9579128368106722</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>227</v>
@@ -7846,19 +7846,19 @@
         <v>148193</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>141708</v>
+        <v>140931</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>153129</v>
+        <v>152750</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9256279031977124</v>
+        <v>0.9256279031977126</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8851244038011942</v>
+        <v>0.8802680764825787</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9564605803164781</v>
+        <v>0.9540920717199632</v>
       </c>
     </row>
     <row r="11">
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2950</v>
+        <v>3013</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.007291245269198813</v>
@@ -7962,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02623065987487393</v>
+        <v>0.02679206263211431</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -7971,19 +7971,19 @@
         <v>3978</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1636</v>
+        <v>1615</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7646</v>
+        <v>7590</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.06933447495965016</v>
+        <v>0.06933447495965017</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02850883978431169</v>
+        <v>0.02815553681513303</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.133270035763884</v>
+        <v>0.1322832309167636</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -7992,19 +7992,19 @@
         <v>4798</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2266</v>
+        <v>2033</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8659</v>
+        <v>9256</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0282496888717018</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01333934764634518</v>
+        <v>0.01197153389715153</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05098285572005477</v>
+        <v>0.0544958302864803</v>
       </c>
     </row>
     <row r="13">
@@ -8021,19 +8021,19 @@
         <v>8053</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4361</v>
+        <v>4220</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14038</v>
+        <v>13515</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07160108947994202</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03877145202421475</v>
+        <v>0.03751916588048315</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1248162263910859</v>
+        <v>0.1201620582199304</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -8042,19 +8042,19 @@
         <v>7610</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4204</v>
+        <v>4192</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12464</v>
+        <v>12373</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1326404457609886</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07327263425802362</v>
+        <v>0.07305651419977913</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.217242703764512</v>
+        <v>0.2156444328344236</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -8063,19 +8063,19 @@
         <v>15663</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10270</v>
+        <v>10345</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23210</v>
+        <v>23088</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.09222042075157452</v>
+        <v>0.09222042075157451</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06046891847398826</v>
+        <v>0.06090589252059298</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.136656074892014</v>
+        <v>0.1359348629744192</v>
       </c>
     </row>
     <row r="14">
@@ -8092,19 +8092,19 @@
         <v>103598</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>97578</v>
+        <v>98295</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>107240</v>
+        <v>107520</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9211076652508591</v>
+        <v>0.9211076652508592</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8675840228957895</v>
+        <v>0.8739569579291908</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9534878161975059</v>
+        <v>0.9559829269388184</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>85</v>
@@ -8113,19 +8113,19 @@
         <v>45787</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>40437</v>
+        <v>40257</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>49737</v>
+        <v>50230</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7980250792793612</v>
+        <v>0.7980250792793613</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7047861172370922</v>
+        <v>0.7016531534416304</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8668701667590267</v>
+        <v>0.875472440220791</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>235</v>
@@ -8134,19 +8134,19 @@
         <v>149385</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>142146</v>
+        <v>141714</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>155528</v>
+        <v>155707</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8795298903767237</v>
+        <v>0.8795298903767236</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8369134662868811</v>
+        <v>0.8343687525602397</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9156985099579859</v>
+        <v>0.9167516563340625</v>
       </c>
     </row>
     <row r="15">
@@ -8238,19 +8238,19 @@
         <v>11910</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6815</v>
+        <v>6715</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19091</v>
+        <v>19259</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.0458050532702568</v>
+        <v>0.04580505327025681</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02620990123452359</v>
+        <v>0.02582619551172309</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07342522939483664</v>
+        <v>0.07407070571988029</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -8259,19 +8259,19 @@
         <v>6798</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3919</v>
+        <v>3679</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10992</v>
+        <v>11314</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05194133886467538</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02994308646761005</v>
+        <v>0.02810896826945132</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08398245696291672</v>
+        <v>0.08644293793320604</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -8280,19 +8280,19 @@
         <v>18708</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12475</v>
+        <v>12671</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26945</v>
+        <v>27492</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04785965998079433</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0319147738466509</v>
+        <v>0.03241559456898804</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06893331317977248</v>
+        <v>0.07033128865087336</v>
       </c>
     </row>
     <row r="17">
@@ -8309,19 +8309,19 @@
         <v>22990</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16478</v>
+        <v>16471</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31748</v>
+        <v>30993</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.08841939054735883</v>
+        <v>0.08841939054735884</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06337692321398626</v>
+        <v>0.06334764005504671</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1221047289010953</v>
+        <v>0.1191999987916166</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>22</v>
@@ -8330,19 +8330,19 @@
         <v>11884</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7241</v>
+        <v>7748</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16772</v>
+        <v>17651</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.09080078316434712</v>
+        <v>0.0908007831643471</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05532541934085285</v>
+        <v>0.05920262665280716</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1281450419475244</v>
+        <v>0.1348611301495483</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>58</v>
@@ -8351,19 +8351,19 @@
         <v>34874</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>27110</v>
+        <v>27495</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>44736</v>
+        <v>45270</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.08921674998834361</v>
+        <v>0.08921674998834363</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06935530305887395</v>
+        <v>0.07033936868061737</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.114448388239362</v>
+        <v>0.1158134788843825</v>
       </c>
     </row>
     <row r="18">
@@ -8380,19 +8380,19 @@
         <v>225107</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>213927</v>
+        <v>215237</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>233441</v>
+        <v>233418</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8657755561823844</v>
+        <v>0.8657755561823843</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8227774722603782</v>
+        <v>0.8278147682526725</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8978287973793969</v>
+        <v>0.8977409317899164</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>223</v>
@@ -8401,19 +8401,19 @@
         <v>112198</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>106385</v>
+        <v>106005</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>117276</v>
+        <v>117227</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.8572578779709774</v>
+        <v>0.8572578779709775</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8128470765531675</v>
+        <v>0.8099435333946039</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.896061185983937</v>
+        <v>0.8956838746043051</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>543</v>
@@ -8422,19 +8422,19 @@
         <v>337305</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>325588</v>
+        <v>324996</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>347543</v>
+        <v>346767</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8629235900308621</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.832948453573669</v>
+        <v>0.8314345066723319</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8891149272686798</v>
+        <v>0.887131679615153</v>
       </c>
     </row>
     <row r="19">
@@ -8526,19 +8526,19 @@
         <v>3569</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1316</v>
+        <v>1506</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7597</v>
+        <v>7823</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.03541002573382949</v>
+        <v>0.0354100257338295</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01305358843473726</v>
+        <v>0.01494048003359543</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07537460449569321</v>
+        <v>0.0776141940780109</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>51</v>
@@ -8547,19 +8547,19 @@
         <v>25347</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18958</v>
+        <v>19432</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>32446</v>
+        <v>33087</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.115331900721975</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08625876298321172</v>
+        <v>0.08841623235747552</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1476310532141578</v>
+        <v>0.1505466123025327</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>58</v>
@@ -8568,19 +8568,19 @@
         <v>28917</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>22563</v>
+        <v>22359</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>37045</v>
+        <v>36492</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.09020305284237642</v>
+        <v>0.09020305284237644</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07038427747158278</v>
+        <v>0.06974851490134239</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1155602974269184</v>
+        <v>0.1138340768805881</v>
       </c>
     </row>
     <row r="21">
@@ -8597,19 +8597,19 @@
         <v>7424</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4098</v>
+        <v>4112</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12074</v>
+        <v>11796</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.07366026194557938</v>
+        <v>0.0736602619455794</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04065630737459963</v>
+        <v>0.04079658881890063</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1197904022693595</v>
+        <v>0.1170323912967013</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>75</v>
@@ -8618,19 +8618,19 @@
         <v>37159</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>30066</v>
+        <v>30123</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>46207</v>
+        <v>46373</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1690758358325083</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1368002969583142</v>
+        <v>0.1370624063816641</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2102449398595555</v>
+        <v>0.2110004220850587</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>89</v>
@@ -8639,19 +8639,19 @@
         <v>44584</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>35956</v>
+        <v>35735</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>53629</v>
+        <v>53647</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1390754956014404</v>
+        <v>0.1390754956014405</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1121620659139884</v>
+        <v>0.1114714817607809</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1672920998746081</v>
+        <v>0.1673469221039089</v>
       </c>
     </row>
     <row r="22">
@@ -8668,19 +8668,19 @@
         <v>89799</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>84766</v>
+        <v>84690</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>94058</v>
+        <v>94018</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8909297123205909</v>
+        <v>0.8909297123205911</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8409861463697088</v>
+        <v>0.8402356834837282</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9331765082638205</v>
+        <v>0.9327797256739443</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>316</v>
@@ -8689,19 +8689,19 @@
         <v>157271</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>146579</v>
+        <v>147513</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>166095</v>
+        <v>166196</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7155922634455166</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6669392957274982</v>
+        <v>0.6711926612399267</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7557404772141784</v>
+        <v>0.7562001667939592</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>443</v>
@@ -8710,19 +8710,19 @@
         <v>247072</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>235612</v>
+        <v>235273</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>258349</v>
+        <v>257453</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7707214515561829</v>
+        <v>0.7707214515561831</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7349731848636429</v>
+        <v>0.7339155958946002</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.805899145926055</v>
+        <v>0.8031052623134288</v>
       </c>
     </row>
     <row r="23">
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2187</v>
+        <v>1810</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1580662387414968</v>
@@ -8826,7 +8826,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.667446234804704</v>
+        <v>0.5526236564934454</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>59</v>
@@ -8835,19 +8835,19 @@
         <v>34687</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26132</v>
+        <v>26723</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>45078</v>
+        <v>45686</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1003148212304055</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07557447906245958</v>
+        <v>0.0772838192667995</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1303654380140403</v>
+        <v>0.1321245051295576</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>60</v>
@@ -8856,19 +8856,19 @@
         <v>35205</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>26926</v>
+        <v>27213</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>44703</v>
+        <v>45586</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1008568576479666</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07713795042657537</v>
+        <v>0.07796008447521438</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1280666202177088</v>
+        <v>0.1305980324316049</v>
       </c>
     </row>
     <row r="25">
@@ -8888,7 +8888,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2022844312685897</v>
@@ -8897,7 +8897,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7214571192530387</v>
+        <v>0.7203229997855616</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>111</v>
@@ -8906,19 +8906,19 @@
         <v>61553</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>51339</v>
+        <v>51231</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>72920</v>
+        <v>73935</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1780112503694438</v>
+        <v>0.1780112503694439</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1484729652210388</v>
+        <v>0.1481601969830143</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.210884723644107</v>
+        <v>0.2138196576058552</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>112</v>
@@ -8927,19 +8927,19 @@
         <v>62216</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>51379</v>
+        <v>52188</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>72749</v>
+        <v>74465</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1782390707171411</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1471930912095661</v>
+        <v>0.1495114083636764</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2084138416113009</v>
+        <v>0.2133317378912064</v>
       </c>
     </row>
     <row r="26">
@@ -8956,7 +8956,7 @@
         <v>2095</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>911</v>
+        <v>924</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>3276</v>
@@ -8965,7 +8965,7 @@
         <v>0.6396493299899134</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2782277496168285</v>
+        <v>0.2820512522067876</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -8977,19 +8977,19 @@
         <v>249543</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>234576</v>
+        <v>236042</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>260896</v>
+        <v>262124</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7216739284001507</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6783904366244644</v>
+        <v>0.6826299135372784</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7545093282108402</v>
+        <v>0.758058894354992</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>470</v>
@@ -8998,19 +8998,19 @@
         <v>251638</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>238886</v>
+        <v>237705</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>263977</v>
+        <v>263146</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7209040716348923</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6843711145840831</v>
+        <v>0.6809889684293178</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7562536769678485</v>
+        <v>0.7538720478914802</v>
       </c>
     </row>
     <row r="27">
@@ -9102,19 +9102,19 @@
         <v>21011</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>14889</v>
+        <v>14558</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>30178</v>
+        <v>29754</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.02994486203699679</v>
+        <v>0.0299448620369968</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02121911566050293</v>
+        <v>0.02074774533545262</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04300930221822107</v>
+        <v>0.04240551285950939</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>137</v>
@@ -9123,19 +9123,19 @@
         <v>74140</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>63576</v>
+        <v>61996</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>88844</v>
+        <v>87661</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08389188607503549</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07193768221917096</v>
+        <v>0.07015015907295025</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1005300863405039</v>
+        <v>0.09919075534338642</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>170</v>
@@ -9144,19 +9144,19 @@
         <v>95151</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>80306</v>
+        <v>79856</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>109313</v>
+        <v>110015</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.06001646888853731</v>
+        <v>0.0600164688885373</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05065289368807552</v>
+        <v>0.05036881601761717</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06894856612764663</v>
+        <v>0.06939133234784596</v>
       </c>
     </row>
     <row r="29">
@@ -9173,19 +9173,19 @@
         <v>47295</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>37960</v>
+        <v>38191</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>59094</v>
+        <v>59435</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.06740461186862454</v>
+        <v>0.06740461186862451</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05410029670893107</v>
+        <v>0.05442921397685058</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08422054513841701</v>
+        <v>0.08470577438102676</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>232</v>
@@ -9194,19 +9194,19 @@
         <v>124780</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>109495</v>
+        <v>110096</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>140827</v>
+        <v>140222</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.14119202768116</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1238971345867629</v>
+        <v>0.1245770745632502</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1593497828715271</v>
+        <v>0.158664782421791</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>306</v>
@@ -9215,19 +9215,19 @@
         <v>172075</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>153394</v>
+        <v>154472</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>192777</v>
+        <v>193222</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.1085358178706671</v>
+        <v>0.108535817870667</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09675309037372272</v>
+        <v>0.09743303232437296</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1215937419750328</v>
+        <v>0.121874283724881</v>
       </c>
     </row>
     <row r="30">
@@ -9244,19 +9244,19 @@
         <v>633356</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>619609</v>
+        <v>620659</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>646050</v>
+        <v>645688</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9026505260943789</v>
+        <v>0.902650526094379</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.883057926958953</v>
+        <v>0.8845540169478072</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9207413264439407</v>
+        <v>0.9202252033940133</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1303</v>
@@ -9265,19 +9265,19 @@
         <v>684840</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>666991</v>
+        <v>666990</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>704198</v>
+        <v>703815</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.7749160862438046</v>
+        <v>0.7749160862438047</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7547191499494854</v>
+        <v>0.7547189217431703</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7968203503913871</v>
+        <v>0.7963866351561678</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2203</v>
@@ -9286,19 +9286,19 @@
         <v>1318195</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1295032</v>
+        <v>1295315</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1340168</v>
+        <v>1341635</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.8314477132407957</v>
+        <v>0.8314477132407956</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8168372434652238</v>
+        <v>0.8170161942507971</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8453069124086007</v>
+        <v>0.8462319904478174</v>
       </c>
     </row>
     <row r="31">
